--- a/biology/Botanique/Euphorbia_leucocephala/Euphorbia_leucocephala.xlsx
+++ b/biology/Botanique/Euphorbia_leucocephala/Euphorbia_leucocephala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'euphorbe à tête blanche[2] (Euphorbia leucocephala) est une espèce de buisson haut de 2 à 3 m de la famille des Euphorbiaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'euphorbe à tête blanche (Euphorbia leucocephala) est une espèce de buisson haut de 2 à 3 m de la famille des Euphorbiaceae.
 Originaire d'Amérique centrale, il a des feuilles verticillées, elliptiques de 3 à 8 cm de long, des petites fleurs crème avec de grandes bractées blanches qui apparaissent en hiver (novembre décembre) donnant à l'arbuste un aspect d'immense boule de neige.
 Il produit comme tous les euphorbiacés un latex qui peut être irritant.
 autres noms : il est également connu sous le nom de Neige de la montagne, Mois de mai, Tête de vieille, Pluie d'argent, Coiffure du grand père, Fleurit-noël ...
